--- a/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,41%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 12,36</t>
+          <t>-11,92; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 18,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 0,0</t>
+          <t>-14,6; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>-25,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,99%</t>
+          <t>-38,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>87,53%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 7,33</t>
+          <t>-7,69; 3,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 3,97</t>
+          <t>-8,83; 2,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,82</t>
+          <t>-3,75; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,98</t>
+          <t>-2,05; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 88,51</t>
+          <t>-67,9; 72,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 53,44</t>
+          <t>-78,91; 62,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 438,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-39,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>68,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>-18,82%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 1,88</t>
+          <t>-11,32; 2,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 6,72</t>
+          <t>-6,52; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 2,22</t>
+          <t>-1,57; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,17</t>
+          <t>-4,63; 2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 18,37</t>
+          <t>-71,57; 38,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 94,35</t>
+          <t>-67,14; 147,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 628,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 41,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 107,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 217,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-35,09%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-24,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-14,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 0,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 1,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 1,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 1,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-63,48; 13,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-60,57; 45,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-84,9; 181,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.687514840995228</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.346599609679965</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.29652846620924</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>-31.39445752124615</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-25,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-38,68%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-15,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>87,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,69; 3,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 2,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 2,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 4,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-67,9; 72,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-78,91; 62,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.470807496213544</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6638464119035015</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5086774302232387</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.022057732903512</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1355900325796722</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05981187212760568</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1768520660816212</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.061602360916802</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-39,88%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>68,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-18,82%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.254203739221535</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.127403005283792</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.977513484318669</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.739385396934642</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5160492843785244</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.58194284700112</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; 2,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 5,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 2,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 2,67</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-71,57; 38,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-67,14; 147,55</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.01918071666502</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.49374606513517</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.54155625330381</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.994745537031397</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.453835892557549</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.637790458096288</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +791,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.980849910117167</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4191834729953853</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7867662113835154</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.00450687241195305</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3996093286877878</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.04731866067693825</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9604606122786216</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.001323514966250889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.75975945023598</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.775739732298312</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.678216714307357</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.761100176014307</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7439247377810057</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5730501618925821</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.509636257364923</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.655955841636682</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.990772380068818</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.830083729530506</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3972545907805777</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.690294831756701</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-35,09%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-24,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-14,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 0,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 1,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 1,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-63,48; 13,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-60,57; 45,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-84,9; 181,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.432322832394571</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3185260838034235</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.03318049855495775</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6576873399571224</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2052389462116416</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03395062129152605</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01830163442839906</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.219075083629429</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.838946176879031</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.318790933104835</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.148966278442544</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.897012642339682</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.524803908546619</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4533970122988648</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7428225465109565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.527595703052612</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.428794349460507</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.175574181681748</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.439053262007615</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3034860440608404</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.011577553388508</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.360541572466687</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.316359993814404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
